--- a/biology/Zoologie/Eterosonycha_alpina/Eterosonycha_alpina.xlsx
+++ b/biology/Zoologie/Eterosonycha_alpina/Eterosonycha_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eterosonycha alpina est une espèce d'araignées aranéomorphes de la famille des Anapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eterosonycha alpina est une espèce d'araignées aranéomorphes de la famille des Anapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eterosonycha alpina a été décrite en 1932 par l'arachnologiste australien L. S. G. Butler (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eterosonycha alpina a été décrite en 1932 par l'arachnologiste australien L. S. G. Butler (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud, au Victoria et en Tasmanie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud, au Victoria et en Tasmanie.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Eterosonycha alpina, une femelle, mesure 1,14 mm de longueur totale et la longueur de son abdomen est de 0,58 mm[2]. Elle présente deux rangées de quatre yeux chacune[2]. 
-Le mâle présente des caractéristiques similaires à celle de la femelle[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Eterosonycha alpina, une femelle, mesure 1,14 mm de longueur totale et la longueur de son abdomen est de 0,58 mm. Elle présente deux rangées de quatre yeux chacune. 
+Le mâle présente des caractéristiques similaires à celle de la femelle.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) L. S. G. Butler, « Studies in Australian spiders, No. 2 », Proceedings of the Royal Society of Victoria. New series, Melbourne, Inconnu, vol. 44, no 2,‎ 1932, p. 103-117 (ISSN 0035-9211, lire en ligne)</t>
         </is>
